--- a/yvals.xlsx
+++ b/yvals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbasahmed/school/214-p3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91B95BFC-36C2-8B40-8B9A-5F8BDC882D48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B392F9-25BE-AC43-AB80-EA94E005B72C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19600" yWindow="460" windowWidth="18780" windowHeight="23540" xr2:uid="{FCDBBF5E-8EF1-BC4B-BB79-031D25A915AB}"/>
   </bookViews>
@@ -380,7 +380,7 @@
   <dimension ref="A1:A83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/yvals.xlsx
+++ b/yvals.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbasahmed/school/214-p3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\Z-School\Spring_2019\Math_214\214-p3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B392F9-25BE-AC43-AB80-EA94E005B72C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564F4DB5-5843-40E4-B562-F3C6C2240F71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="460" windowWidth="18780" windowHeight="23540" xr2:uid="{FCDBBF5E-8EF1-BC4B-BB79-031D25A915AB}"/>
+    <workbookView xWindow="1410" yWindow="1410" windowWidth="16875" windowHeight="10522" xr2:uid="{FCDBBF5E-8EF1-BC4B-BB79-031D25A915AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -380,424 +380,424 @@
   <dimension ref="A1:A83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1">
-        <v>0.91583428066162809</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.42721837524303602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2">
-        <v>0.6641488814617541</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.30981217022427904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3">
-        <v>0.59433510743994877</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.27724544091858727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4">
-        <v>0.8188308639047841</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.38196822139430375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5">
-        <v>0.64075960480005734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.29890154044713074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6">
-        <v>0.94416592113178843</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.44043451888955665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A7">
-        <v>0.72104225568436076</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.33635179143164062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A8">
-        <v>0.64227519650273934</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.29960853366459789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.46648000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A10">
-        <v>0.55468428976337492</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.25874912748881912</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A11">
-        <v>0.82246670825071544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.38366427006479376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A12">
-        <v>0.75460755904121335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.35200933414154517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A13">
-        <v>0.71649714515269769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.33423158827083044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A14">
-        <v>0.69051994575384457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.32211374429525341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A15">
-        <v>0.65693852232092753</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.30644868189226626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A16">
-        <v>0.64660424528815108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.30162794834201673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17">
-        <v>0.68721397303291831</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.32057157414039572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18">
-        <v>0.98892488255668809</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.46131367921504385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19">
-        <v>0.64984493797717213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.30313966666759123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20">
-        <v>0.70098438986367562</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.32699519818360745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21">
-        <v>0.67885997307883417</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.3166746002418146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22">
-        <v>0.70846179637958762</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.33048325877515006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23">
-        <v>0.63164863650265901</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.29465145595576042</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24">
-        <v>0.65445835372403394</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.30529173284518735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25">
-        <v>0.86187084527076607</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.40204551190190702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26">
-        <v>0.8216935448744086</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.38330360481301412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27">
-        <v>0.71836814347110844</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.33510437156640266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28">
-        <v>0.54194877494331706</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.25280826453555855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A29">
-        <v>0.89562092190600728</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.41778924765071429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A30">
-        <v>0.84589921681101865</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.39459506665800398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A31">
-        <v>0.76633568535826468</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.35748027050592335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A32">
-        <v>0.87541025046223686</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.40836137363562425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A33">
-        <v>0.68915390915368224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.32147651554200968</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A34">
-        <v>0.77563932136706482</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.36182023063130841</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A35">
-        <v>0.94868381216647668</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.44254202469941806</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A36">
-        <v>0.7319444646845763</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.34143745388606117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A37">
-        <v>0.76196383777834209</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.35544089104684107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A38">
-        <v>0.74606885422315772</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.34802619911801863</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A39">
-        <v>0.61664052292292626</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.28765047113308662</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A40">
-        <v>0.81518070939944109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.38026549732065135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A41">
-        <v>0.66912699470768833</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.31213436049124249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A42">
-        <v>0.71140997737942402</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.3318585262479537</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A43">
-        <v>0.84534362720685707</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.39433589521945472</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A44">
-        <v>0.88712646370841941</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.41382675279070347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A45">
-        <v>0.42246480515761869</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.19707138230992599</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A46">
-        <v>0.77777885624438603</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.36281828086088119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A47">
-        <v>0.69860137239708275</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.32588356819579117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A48">
-        <v>0.67756804619929567</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.31607194219104745</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A49">
-        <v>0.68483023247566954</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.31945960684525032</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A50">
-        <v>0.74987801350986694</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.34980309574208274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A51">
-        <v>0.59623556180898218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.27813196487265401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A52">
-        <v>0.68992843164550011</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.32183781479399287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A53">
-        <v>0.63243492506023591</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.29501824384209885</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A54">
-        <v>0.77648695436722359</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.36221563447322247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A55">
-        <v>0.69465771572520818</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.32404393123149516</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A56">
-        <v>0.57560511672330072</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.26850827484908535</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A57">
-        <v>0.70915624688254275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.33080720604576858</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A58">
-        <v>0.70978619210974103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.33110106289535202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A59">
-        <v>0.77661323556772821</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.36227454212763388</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A60">
-        <v>0.83416612268185109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.3891218129086299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A61">
-        <v>0.6118606936987645</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.28542077639659963</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A62">
-        <v>0.65521650685337407</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.30564539611696195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A63">
-        <v>0.69229018332834025</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.32293952471900417</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A64">
-        <v>0.72169257168323964</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.3366551508387976</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65">
-        <v>0.95583994209653322</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.44588021618919083</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66">
-        <v>0.76390209313166946</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.35634504840406117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67">
-        <v>0.78063224251751728</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.36414932848957149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68">
-        <v>0.91249280686973167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.42565964454859245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69">
-        <v>0.69244484810528006</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.32301167274415105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70">
-        <v>0.51415300527577812</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.23984209390104499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71">
-        <v>0.66132398737461728</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.3084944136305115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72">
-        <v>0.9474580507508038</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.44197023151423498</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73">
-        <v>0.67697506280050435</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.31579532729517928</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74">
-        <v>0.88731652145667039</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.41391541092910761</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75">
-        <v>0.88780586396768768</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.41414367942364699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76">
-        <v>0.89329221480429599</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.41670295236190796</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77">
-        <v>0.64042184122227885</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.29874398049336864</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78">
-        <v>0.78938193213493335</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.36823088370230372</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79">
-        <v>0.81501186131487935</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.38018673306616496</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80">
-        <v>0.75144090322162516</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.35053215253482367</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81">
-        <v>0.56902867692799997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.26544049721337343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82">
-        <v>0.9837453085447494</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.45889751152995473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83">
-        <v>0.73947610205418779</v>
+        <v>0.34495081208623751</v>
       </c>
     </row>
   </sheetData>
